--- a/data_processed/20250806/BTCUSDVOLSURFACE_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDVOLSURFACE_20250806.xlsx
@@ -19030,7 +19030,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19204,7 +19204,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -19262,7 +19262,7 @@
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39743,7 +39743,7 @@
       </c>
       <c r="G1494" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39772,7 +39772,7 @@
       </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -39830,7 +39830,7 @@
       </c>
       <c r="G1497" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39859,7 +39859,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39888,7 +39888,7 @@
       </c>
       <c r="G1499" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39917,7 +39917,7 @@
       </c>
       <c r="G1500" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -39946,7 +39946,7 @@
       </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46674,7 +46674,7 @@
       </c>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46703,7 +46703,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -46761,7 +46761,7 @@
       </c>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46790,7 +46790,7 @@
       </c>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="G1758" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46848,7 +46848,7 @@
       </c>
       <c r="G1759" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46877,7 +46877,7 @@
       </c>
       <c r="G1760" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46906,7 +46906,7 @@
       </c>
       <c r="G1761" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46935,7 +46935,7 @@
       </c>
       <c r="G1762" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46964,7 +46964,7 @@
       </c>
       <c r="G1763" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -46993,7 +46993,7 @@
       </c>
       <c r="G1764" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250806/BTCUSDVOLSURFACE_20250806.xlsx
+++ b/data_processed/20250806/BTCUSDVOLSURFACE_20250806.xlsx
@@ -665,7 +665,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7434,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7492,7 +7492,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7770,7 +7770,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7886,7 +7886,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7969,7 +7969,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8052,7 +8052,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="G701" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19117,7 +19117,7 @@
       </c>
       <c r="G704" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19175,7 +19175,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -19204,7 +19204,7 @@
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -39772,7 +39772,7 @@
       </c>
       <c r="G1495" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
@@ -40569,7 +40569,7 @@
       </c>
       <c r="G1524" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40623,7 +40623,7 @@
       </c>
       <c r="G1526" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -40706,7 +40706,7 @@
       </c>
       <c r="G1529" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -46703,7 +46703,7 @@
       </c>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>CA,BF</t>
+          <t>BF,CA</t>
         </is>
       </c>
     </row>
